--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-14_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-14_end.xlsx
@@ -3764,7 +3764,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Subtitle(text="“...If you have your own ideas and your own goals now…”", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
+    <t xml:space="preserve">[Subtitle(text="'...If you have your own ideas and your own goals now…'", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
 </t>
   </si>
   <si>
@@ -3828,7 +3828,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Subtitle(text="“I don't want to hurt anyone. I don't want to get anyone hurt.”   ", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
+    <t xml:space="preserve">[Subtitle(text="'I don't want to hurt anyone. I don't want to get anyone hurt.'   ", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
 </t>
   </si>
   <si>
@@ -4848,7 +4848,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  "You" killed Theresa.
+    <t xml:space="preserve">[name="Kal'tsit"]  'You' killed Theresa.
 </t>
   </si>
   <si>
@@ -4860,7 +4860,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  What irks me the most is that you lost all your memories when you were put in the sarcophagus. Yet that doesn't change the truth, the truth that has nothing to do with "you" one bit.
+    <t xml:space="preserve">[name="Kal'tsit"]  What irks me the most is that you lost all your memories when you were put in the sarcophagus. Yet that doesn't change the truth, the truth that has nothing to do with 'you' one bit.
 </t>
   </si>
   <si>
@@ -4896,7 +4896,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  If I give you an answer, will you accept that right away? You reject my "contempt" for you from the bottom of your heart, so I will spare you my colorful "answers" and "truths". 
+    <t xml:space="preserve">[name="Kal'tsit"]  If I give you an answer, will you accept that right away? You reject my 'contempt' for you from the bottom of your heart, so I will spare you my colorful 'answers' and 'truths'. 
 </t>
   </si>
   <si>
@@ -5460,19 +5460,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"You know it's a trap, so why are you here?" 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"I'm here because I have to figure out whether this is really a trap. That's the only way I can prove that you are beyond redemption!" 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"And if I tell you it is?" 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"In that case, it's not going to weigh us down the tiniest bit when we finally set you free from all this, whether I'm the one who does the honors or someone else. If you've got any regrets, save them for your own funeral!"  
+    <t xml:space="preserve">'You know it's a trap, so why are you here?' 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'I'm here because I have to figure out whether this is really a trap. That's the only way I can prove that you are beyond redemption!' 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'And if I tell you it is?' 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'In that case, it's not going to weigh us down the tiniest bit when we finally set you free from all this, whether I'm the one who does the honors or someone else. If you've got any regrets, save them for your own funeral!'  
 </t>
   </si>
   <si>
@@ -5480,11 +5480,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"In that case, when do I need to do this?" 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"When you think it's the right time." 
+    <t xml:space="preserve">'In that case, when do I need to do this?' 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'When you think it's the right time.' 
 </t>
   </si>
   <si>
@@ -5504,7 +5504,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"As sword of stratus rent, once stood stand fast."
+    <t xml:space="preserve">'As sword of stratus rent, once stood stand fast.'
 </t>
   </si>
   <si>
@@ -6692,7 +6692,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="켈시"]  {@nickname} 박사, 한때 네 육체를 소유한 자가 테레시아의 피를 손에 묻힌 적 있었다.
+    <t xml:space="preserve">[name="켈시"]  {@nickname} 박사, 한때 네 육체를 소유한 자가 테레시아의 피를 손에 묻힌 적이 있었다.
 </t>
   </si>
   <si>
@@ -6936,11 +6936,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="로도스 아일랜드 오퍼레이터"]  힘내, 아미야.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="로도스 아일랜드 오퍼레이터"]  나중에 관리가 엄격하지 않은 도시에서 몰래 뭐라도 한 잔 하고 싶어. 뭐라도 좋으니까.
+    <t xml:space="preserve">[name="로도스 아일랜드 오퍼레이터"]  힘내세요, 아미야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 오퍼레이터"]  나중에 관리가 엄격하지 않은 도시에서, 뭐라도 좋으니 몰래 한잔 하고 싶군요.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-14_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-14_end.xlsx
@@ -3764,7 +3764,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Subtitle(text="'...If you have your own ideas and your own goals now…'", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
+    <t xml:space="preserve">[Subtitle(text="'...If you have your own ideas and your own goals now...'", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
 </t>
   </si>
   <si>
@@ -3800,7 +3800,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">...’tis a reality that even time cannot shake♪
+    <t xml:space="preserve">...'tis a reality that even time cannot shake♪
 </t>
   </si>
   <si>
@@ -4496,7 +4496,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I’d rather you be the one to broach the subject.
+    <t xml:space="preserve">[name="Kal'tsit"]  I'd rather you be the one to broach the subject.
 </t>
   </si>
   <si>
@@ -4528,7 +4528,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="What? ...That’s all you can tell me? ", values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="What? ...That's all you can tell me? ", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -4896,7 +4896,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  If I give you an answer, will you accept that right away? You reject my 'contempt' for you from the bottom of your heart, so I will spare you my colorful 'answers' and 'truths'. 
+    <t xml:space="preserve">[name="Kal'tsit"]  If I give you an answer, will you accept that right away? You reject my 'contempt' for you from the bottom of your heart, so I will spare you my colorful 'answers' and 'truths.' 
 </t>
   </si>
   <si>
